--- a/TESTCAFE/Test/Data/testData_Kaayu.xlsx
+++ b/TESTCAFE/Test/Data/testData_Kaayu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -25,19 +25,25 @@
     <t>expectedResult</t>
   </si>
   <si>
-    <t>tomsmith</t>
+    <t>sushobhan123</t>
   </si>
   <si>
-    <t>SuperSecretPassword!</t>
+    <t>Password@1234</t>
   </si>
   <si>
-    <t>You logged into a secure area!</t>
+    <t>Dashboard</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>sffgggg</t>
   </si>
   <si>
-    <t>Your username is invalid!</t>
+    <t>The password must be at least 8 characters.</t>
+  </si>
+  <si>
+    <t>defjjhghfjhhgghjr</t>
+  </si>
+  <si>
+    <t>Invalid login credentials.</t>
   </si>
 </sst>
 </file>
@@ -651,8 +657,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,17 +982,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="24.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="3" max="3" width="45.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1000,7 +1010,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1009,16 +1019,30 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Password@1234" tooltip="mailto:Password@1234"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
